--- a/Tabela  1a - Total de obitos.xlsx
+++ b/Tabela  1a - Total de obitos.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,42 +391,442 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="B2">
-        <v>152128</v>
+        <v>8572</v>
       </c>
       <c r="C2">
-        <v>84432</v>
+        <v>5140</v>
       </c>
       <c r="D2">
-        <v>67663</v>
+        <v>3423</v>
       </c>
       <c r="E2">
-        <v>84450</v>
+        <v>5145</v>
       </c>
       <c r="F2">
-        <v>67678</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>8760</v>
+      </c>
+      <c r="C3">
+        <v>5226</v>
+      </c>
+      <c r="D3">
+        <v>3532</v>
+      </c>
+      <c r="E3">
+        <v>5227</v>
+      </c>
+      <c r="F3">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>9066</v>
+      </c>
+      <c r="C4">
+        <v>5381</v>
+      </c>
+      <c r="D4">
+        <v>3685</v>
+      </c>
+      <c r="E4">
+        <v>5381</v>
+      </c>
+      <c r="F4">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>9095</v>
+      </c>
+      <c r="C5">
+        <v>5474</v>
+      </c>
+      <c r="D5">
+        <v>3616</v>
+      </c>
+      <c r="E5">
+        <v>5477</v>
+      </c>
+      <c r="F5">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>9609</v>
+      </c>
+      <c r="C6">
+        <v>5666</v>
+      </c>
+      <c r="D6">
+        <v>3937</v>
+      </c>
+      <c r="E6">
+        <v>5670</v>
+      </c>
+      <c r="F6">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>9425</v>
+      </c>
+      <c r="C7">
+        <v>5564</v>
+      </c>
+      <c r="D7">
+        <v>3856</v>
+      </c>
+      <c r="E7">
+        <v>5567</v>
+      </c>
+      <c r="F7">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>9513</v>
+      </c>
+      <c r="C8">
+        <v>5515</v>
+      </c>
+      <c r="D8">
+        <v>3996</v>
+      </c>
+      <c r="E8">
+        <v>5516</v>
+      </c>
+      <c r="F8">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>9866</v>
+      </c>
+      <c r="C9">
+        <v>5716</v>
+      </c>
+      <c r="D9">
+        <v>4150</v>
+      </c>
+      <c r="E9">
+        <v>5716</v>
+      </c>
+      <c r="F9">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>10284</v>
+      </c>
+      <c r="C10">
+        <v>5984</v>
+      </c>
+      <c r="D10">
+        <v>4298</v>
+      </c>
+      <c r="E10">
+        <v>5985</v>
+      </c>
+      <c r="F10">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>10459</v>
+      </c>
+      <c r="C11">
+        <v>6125</v>
+      </c>
+      <c r="D11">
+        <v>4332</v>
+      </c>
+      <c r="E11">
+        <v>6126</v>
+      </c>
+      <c r="F11">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>10851</v>
+      </c>
+      <c r="C12">
+        <v>6306</v>
+      </c>
+      <c r="D12">
+        <v>4545</v>
+      </c>
+      <c r="E12">
+        <v>6306</v>
+      </c>
+      <c r="F12">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>11253</v>
+      </c>
+      <c r="C13">
+        <v>6530</v>
+      </c>
+      <c r="D13">
+        <v>4722</v>
+      </c>
+      <c r="E13">
+        <v>6531</v>
+      </c>
+      <c r="F13">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>11308</v>
+      </c>
+      <c r="C14">
+        <v>6570</v>
+      </c>
+      <c r="D14">
+        <v>4733</v>
+      </c>
+      <c r="E14">
+        <v>6573</v>
+      </c>
+      <c r="F14">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>11408</v>
+      </c>
+      <c r="C15">
+        <v>6479</v>
+      </c>
+      <c r="D15">
+        <v>4928</v>
+      </c>
+      <c r="E15">
+        <v>6480</v>
+      </c>
+      <c r="F15">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>12018</v>
+      </c>
+      <c r="C16">
+        <v>6856</v>
+      </c>
+      <c r="D16">
+        <v>5162</v>
+      </c>
+      <c r="E16">
+        <v>6856</v>
+      </c>
+      <c r="F16">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>11975</v>
+      </c>
+      <c r="C17">
+        <v>6708</v>
+      </c>
+      <c r="D17">
+        <v>5262</v>
+      </c>
+      <c r="E17">
+        <v>6711</v>
+      </c>
+      <c r="F17">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>12050</v>
+      </c>
+      <c r="C18">
+        <v>6777</v>
+      </c>
+      <c r="D18">
+        <v>5273</v>
+      </c>
+      <c r="E18">
+        <v>6777</v>
+      </c>
+      <c r="F18">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>12514</v>
+      </c>
+      <c r="C19">
+        <v>6887</v>
+      </c>
+      <c r="D19">
+        <v>5625</v>
+      </c>
+      <c r="E19">
+        <v>6888</v>
+      </c>
+      <c r="F19">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>12157</v>
+      </c>
+      <c r="C20">
+        <v>6688</v>
+      </c>
+      <c r="D20">
+        <v>5467</v>
+      </c>
+      <c r="E20">
+        <v>6689</v>
+      </c>
+      <c r="F20">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>12804</v>
+      </c>
+      <c r="C21">
+        <v>7030</v>
+      </c>
+      <c r="D21">
+        <v>5773</v>
+      </c>
+      <c r="E21">
+        <v>7031</v>
+      </c>
+      <c r="F21">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>16218</v>
+      </c>
+      <c r="C22">
+        <v>9162</v>
+      </c>
+      <c r="D22">
+        <v>7055</v>
+      </c>
+      <c r="E22">
+        <v>9163</v>
+      </c>
+      <c r="F22">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
         <v>2021</v>
       </c>
-      <c r="B3">
-        <v>190085</v>
-      </c>
-      <c r="C3">
-        <v>104471</v>
-      </c>
-      <c r="D3">
-        <v>85579</v>
-      </c>
-      <c r="E3">
-        <v>104490</v>
-      </c>
-      <c r="F3">
-        <v>85595</v>
+      <c r="B23">
+        <v>19079</v>
+      </c>
+      <c r="C23">
+        <v>10612</v>
+      </c>
+      <c r="D23">
+        <v>8462</v>
+      </c>
+      <c r="E23">
+        <v>10615</v>
+      </c>
+      <c r="F23">
+        <v>8464</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela  1a - Total de obitos.xlsx
+++ b/Tabela  1a - Total de obitos.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,19 +394,19 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>8572</v>
+        <v>8563</v>
       </c>
       <c r="C2">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="D2">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="E2">
-        <v>5145</v>
+        <v>5139</v>
       </c>
       <c r="F2">
-        <v>3427</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="3">
@@ -827,6 +827,23 @@
       </c>
       <c r="F23">
         <v>8464</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela  1a - Total de obitos.xlsx
+++ b/Tabela  1a - Total de obitos.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,19 +394,19 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>8563</v>
+        <v>8572</v>
       </c>
       <c r="C2">
-        <v>5134</v>
+        <v>5140</v>
       </c>
       <c r="D2">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="E2">
-        <v>5139</v>
+        <v>5145</v>
       </c>
       <c r="F2">
-        <v>3424</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="3">
@@ -827,23 +827,6 @@
       </c>
       <c r="F23">
         <v>8464</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
